--- a/storage/data/classe_options.xlsx
+++ b/storage/data/classe_options.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vortex\fullstack\masomo\storage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vortex\fullstack\masomo\storage\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5916"/>
   </bookViews>
   <sheets>
     <sheet name="classe_options" sheetId="1" r:id="rId1"/>
@@ -870,13 +870,10 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D1" sqref="D1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="5.5546875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
